--- a/MCS_Sim/snowKick.xlsx
+++ b/MCS_Sim/snowKick.xlsx
@@ -420,13 +420,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>1242</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>3607</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>5151</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -443,13 +443,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>3525</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>5683</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>792</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>4564</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>5364</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -489,13 +489,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>1473</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>3237</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>5290</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -512,13 +512,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>3688</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>5550</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>762</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -535,13 +535,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>4712</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>5201</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -558,13 +558,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>1938</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2755</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>5307</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -581,13 +581,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>4020</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>5235</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>745</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -604,13 +604,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>4881</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>5050</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -627,13 +627,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>9861</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -650,13 +650,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>8879</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -673,13 +673,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>8163</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -696,13 +696,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>9902</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -719,13 +719,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>9046</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -742,13 +742,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>8350</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -765,13 +765,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>9956</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -788,13 +788,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>9190</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -811,13 +811,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>8419</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -834,7 +834,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>9984</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>9986</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>30</v>
@@ -972,7 +972,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>9995</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>0</v>
